--- a/dashboard_loader/health_agedcare_uploader/health_agedcare.xlsx
+++ b/dashboard_loader/health_agedcare_uploader/health_agedcare.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t xml:space="preserve">Aged care places per 1,000 older people</t>
   </si>
@@ -89,22 +89,37 @@
     <t xml:space="preserve">The Commonwealth Government has set a target of 125 places per 1000 people aged 70 years and over by 2020–21 (DSS, 2013). </t>
   </si>
   <si>
-    <t xml:space="preserve">The growth in the rate of aged care places has stalled in recent years. After increasing in 2010 and 2011, rates of aged care places have remained around 111 places per 1000 people from 2012 to 2016.</t>
+    <t xml:space="preserve">The growth in the rate of aged care places has stalled in recent years. After increasing in 2010 and 2011, rates of aged care places have remained around 108 places per 1000 people from 2012 to 2016.</t>
   </si>
   <si>
     <t xml:space="preserve">Influences</t>
   </si>
   <si>
-    <t xml:space="preserve">Australia’s ageing population means that, even if service provision is maintained at similar levels, over time the number of aged care places per 1000 older people will decrease. Other factors, such as the availability of training for aged care professionals, also influences aged care availability. The Productivity Commission has also found that older Australians strongly prefer to age in place. Most people are happy staying in their family home, despite a common perception that such homes are too big for them (PC, 2015).</t>
+    <t xml:space="preserve">Australia’s ageing population means that, even if service provision is maintained at similar levels, over time the number of aged care places per 1000 older people will decrease. Other factors, such as the availability of training for aged care professionals, also influence aged care availability. The Productivity Commission has also found that older Australians strongly prefer to age in place. Most people are happy staying in their family home, despite a common perception that such homes are too big for them (PC, 2015).</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Figures include operational number of aged care places per 1000 people aged 70 years or over and Aboriginal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sourced from: DoHA/DSS (unpublished)</t>
+    <t xml:space="preserve">Figures include operational number of aged care places per 1000 people aged 70 years or over and Aboriginal and Torres Strait Islander Australians aged 50-69 years as at 30 June.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Health (unpublished).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Council of Australian Governments (COAG), 2011, National Healthcare Agreement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Social Services (DSS), 2013, 2012-13 Report on the operation of the Aged Care Act 1997. Canberra: Department of Social Services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Productivity Commission (PC), 2015, Housing Decisions of Older Australians, Commission Research Paper, Canberra.</t>
   </si>
 </sst>
 </file>
@@ -115,7 +130,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -136,6 +151,87 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -144,21 +240,84 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -169,7 +328,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -193,50 +352,182 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -247,15 +538,15 @@
   </sheetPr>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B8:B12 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -874,17 +1165,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B8:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="108.801020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="108.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -927,13 +1218,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -941,18 +1232,38 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="25.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
         <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="27.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="27.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_loader/health_agedcare_uploader/health_agedcare.xlsx
+++ b/dashboard_loader/health_agedcare_uploader/health_agedcare.xlsx
@@ -86,7 +86,25 @@
     <t xml:space="preserve">Desc Body</t>
   </si>
   <si>
-    <t xml:space="preserve">The Commonwealth Government has set a target of 125 places per 1000 people aged 70 years and over by 2020–21 (DSS, 2013). </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The Commonwealth Government has set a target of 125 places per 1000 people aged 70 years and over by 2021-22. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">The Commonwealth funds and regulates residential and home-based aged care services.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">The growth in the rate of aged care places has stalled in recent years. After increasing in 2010 and 2011, rates of aged care places have remained around 108 places per 1000 people from 2012 to 2016.</t>
@@ -130,7 +148,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -239,6 +257,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -434,7 +458,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -539,7 +563,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B8:B12 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1168,7 +1192,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B8:B12"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1210,7 +1234,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
